--- a/Projects/CCRU_SAND/Data/kpi_level_2.xlsx
+++ b/Projects/CCRU_SAND/Data/kpi_level_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Initial INSERTS" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,9 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">kpi_level_2!$A$1:$X$585</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">kpi_level_2!$A$1:$X$561</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">kpi_level_2!$A$1:$X$561</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">kpi_level_2!$A$1:$X$585</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">kpi_level_2!$A$1:$X$561</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">kpi_level_2!$A$1:$X$561</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <pivotCaches>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="2240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8247" uniqueCount="2262">
   <si>
     <t xml:space="preserve">INSERT INTO `static`.`kpi_calculation_stage` (`pk`, `name`) VALUES ('3', 'PS Customer Specific');</t>
   </si>
@@ -6679,6 +6681,72 @@
   </si>
   <si>
     <t xml:space="preserve">'+ 100'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - FT - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - FT NS - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - FT NS - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - FT - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Canteen - EDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Canteen - OTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Petroleum - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Petroleum - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC QSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Conv Big - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Conv Big - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Conv Small - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Conv Small - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Hypermarket - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Hypermarket - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Supermarket - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - MT Supermarket - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Visit</t>
   </si>
   <si>
     <t xml:space="preserve">KPI</t>
@@ -7455,14 +7523,14 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="125.811224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="122.979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,7 +7601,7 @@
   </sheetPr>
   <dimension ref="1:587"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -7543,28 +7611,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="75.7295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="73.8418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51620,9 +51687,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52159,11 +52226,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.39795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67212,14 +67279,278 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2215</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>2215</v>
+      </c>
+      <c r="J1" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H1,".xlsx',")</f>
+        <v>'PoS 2019 - FT - CAP.xlsx',</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2216</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2216</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H2,".xlsx',")</f>
+        <v>'PoS 2019 - FT NS - CAP.xlsx',</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2217</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>2217</v>
+      </c>
+      <c r="J3" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H3,".xlsx',")</f>
+        <v>'PoS 2019 - FT NS - REG.xlsx',</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>2218</v>
+      </c>
+      <c r="J4" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H4,".xlsx',")</f>
+        <v>'PoS 2019 - FT - REG.xlsx',</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>2219</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>2219</v>
+      </c>
+      <c r="J5" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H5,".xlsx',")</f>
+        <v>'PoS 2019 - IC Canteen - EDU.xlsx',</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>2220</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>2220</v>
+      </c>
+      <c r="J6" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H6,".xlsx',")</f>
+        <v>'PoS 2019 - IC Canteen - OTH.xlsx',</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>2221</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>2221</v>
+      </c>
+      <c r="J7" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H7,".xlsx',")</f>
+        <v>'PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx',</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>2222</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>2222</v>
+      </c>
+      <c r="J8" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H8,".xlsx',")</f>
+        <v>'PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx',</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>2223</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>2223</v>
+      </c>
+      <c r="J9" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H9,".xlsx',")</f>
+        <v>'PoS 2019 - IC HoReCa RestCafeTea - CAP.xlsx',</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>2224</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J10" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H10,".xlsx',")</f>
+        <v>'PoS 2019 - IC HoReCa RestCafeTea - REG.xlsx',</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>2225</v>
+      </c>
+      <c r="J11" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H11,".xlsx',")</f>
+        <v>'PoS 2019 - IC Petroleum - CAP.xlsx',</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>2226</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2226</v>
+      </c>
+      <c r="J12" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H12,".xlsx',")</f>
+        <v>'PoS 2019 - IC Petroleum - REG.xlsx',</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>2227</v>
+      </c>
+      <c r="J13" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H13,".xlsx',")</f>
+        <v>'PoS 2019 - IC QSR.xlsx',</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>2228</v>
+      </c>
+      <c r="J14" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H14,".xlsx',")</f>
+        <v>'PoS 2019 - MT Conv Big - CAP.xlsx',</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>2229</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2229</v>
+      </c>
+      <c r="J15" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H15,".xlsx',")</f>
+        <v>'PoS 2019 - MT Conv Big - REG.xlsx',</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>2230</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>2230</v>
+      </c>
+      <c r="J16" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H16,".xlsx',")</f>
+        <v>'PoS 2019 - MT Conv Small - CAP.xlsx',</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>2231</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>2231</v>
+      </c>
+      <c r="J17" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H17,".xlsx',")</f>
+        <v>'PoS 2019 - MT Conv Small - REG.xlsx',</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>2232</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>2232</v>
+      </c>
+      <c r="J18" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H18,".xlsx',")</f>
+        <v>'PoS 2019 - MT Hypermarket - CAP.xlsx',</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>2233</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2233</v>
+      </c>
+      <c r="J19" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H19,".xlsx',")</f>
+        <v>'PoS 2019 - MT Hypermarket - REG.xlsx',</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>2234</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>2234</v>
+      </c>
+      <c r="J20" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H20,".xlsx',")</f>
+        <v>'PoS 2019 - MT Supermarket - CAP.xlsx',</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>2235</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2235</v>
+      </c>
+      <c r="J21" s="0" t="str">
+        <f aca="false">CONCATENATE("'",H21,".xlsx',")</f>
+        <v>'PoS 2019 - MT Supermarket - REG.xlsx',</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -67243,24 +67574,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>2215</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F2" s="0" t="str">
         <f aca="false">UPPER(G2)</f>
         <v>CCH INTEGRATION</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="H2" s="0" t="str">
         <f aca="false">CONCATENATE("'",F2,"'")</f>
@@ -67273,14 +67606,14 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">UPPER(G3)</f>
         <v>CONTRACT EXECUTION 2018</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="H3" s="0" t="str">
         <f aca="false">CONCATENATE("'",F3,"'")</f>
@@ -67293,14 +67626,14 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">UPPER(G4)</f>
         <v>EQUIPMENT EXECUTION 2018</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
       <c r="H4" s="0" t="str">
         <f aca="false">CONCATENATE("'",F4,"'")</f>
@@ -67313,14 +67646,14 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">UPPER(G5)</f>
         <v>KPI CONVERSION</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
       <c r="H5" s="0" t="str">
         <f aca="false">CONCATENATE("'",F5,"'")</f>
@@ -67333,14 +67666,14 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F6" s="0" t="str">
         <f aca="false">UPPER(G6)</f>
         <v>MARKETING 2017</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
       <c r="H6" s="0" t="str">
         <f aca="false">CONCATENATE("'",F6,"'")</f>
@@ -67353,14 +67686,14 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">UPPER(G7)</f>
         <v>POS 2018 - CANTEEN</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>2221</v>
+        <v>2243</v>
       </c>
       <c r="H7" s="0" t="str">
         <f aca="false">CONCATENATE("'",F7,"'")</f>
@@ -67373,14 +67706,14 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">UPPER(G8)</f>
         <v>POS 2018 - FT</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>2222</v>
+        <v>2244</v>
       </c>
       <c r="H8" s="0" t="str">
         <f aca="false">CONCATENATE("'",F8,"'")</f>
@@ -67393,14 +67726,14 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">UPPER(G9)</f>
         <v>POS 2018 - HORECA - BAR TAVERN NIGHT CLUBS</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>2223</v>
+        <v>2245</v>
       </c>
       <c r="H9" s="0" t="str">
         <f aca="false">CONCATENATE("'",F9,"'")</f>
@@ -67413,14 +67746,14 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F10" s="0" t="str">
         <f aca="false">UPPER(G10)</f>
         <v>POS 2018 - HORECA - COFFEE TEA SHOPS</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>2224</v>
+        <v>2246</v>
       </c>
       <c r="H10" s="0" t="str">
         <f aca="false">CONCATENATE("'",F10,"'")</f>
@@ -67433,14 +67766,14 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F11" s="0" t="str">
         <f aca="false">UPPER(G11)</f>
         <v>POS 2018 - HORECA - RESTAURANT CAFE</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>2225</v>
+        <v>2247</v>
       </c>
       <c r="H11" s="0" t="str">
         <f aca="false">CONCATENATE("'",F11,"'")</f>
@@ -67453,14 +67786,14 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="F12" s="0" t="str">
         <f aca="false">UPPER(G12)</f>
         <v>POS 2018 - MT - CONVENIENCE BIG</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>2226</v>
+        <v>2248</v>
       </c>
       <c r="H12" s="0" t="str">
         <f aca="false">CONCATENATE("'",F12,"'")</f>
@@ -67473,14 +67806,14 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F13" s="0" t="str">
         <f aca="false">UPPER(G13)</f>
         <v>POS 2018 - MT - CONVENIENCE SMALL</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>2227</v>
+        <v>2249</v>
       </c>
       <c r="H13" s="0" t="str">
         <f aca="false">CONCATENATE("'",F13,"'")</f>
@@ -67493,14 +67826,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">UPPER(G14)</f>
         <v>POS 2018 - MT - HYPERMARKET</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>2228</v>
+        <v>2250</v>
       </c>
       <c r="H14" s="0" t="str">
         <f aca="false">CONCATENATE("'",F14,"'")</f>
@@ -67513,14 +67846,14 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">UPPER(G15)</f>
         <v>POS 2018 - MT - SUPERMARKET</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>2229</v>
+        <v>2251</v>
       </c>
       <c r="H15" s="0" t="str">
         <f aca="false">CONCATENATE("'",F15,"'")</f>
@@ -67533,14 +67866,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">UPPER(G16)</f>
         <v>POS 2018 - PETROLEUM</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>2230</v>
+        <v>2252</v>
       </c>
       <c r="H16" s="0" t="str">
         <f aca="false">CONCATENATE("'",F16,"'")</f>
@@ -67553,14 +67886,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">UPPER(G17)</f>
         <v>POS 2018 - QSR</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>2231</v>
+        <v>2253</v>
       </c>
       <c r="H17" s="0" t="str">
         <f aca="false">CONCATENATE("'",F17,"'")</f>
@@ -67573,14 +67906,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">UPPER(G18)</f>
         <v>SPIRITS 2018 - FT</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>2232</v>
+        <v>2254</v>
       </c>
       <c r="H18" s="0" t="str">
         <f aca="false">CONCATENATE("'",F18,"'")</f>
@@ -67593,14 +67926,14 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">UPPER(G19)</f>
         <v>SPIRITS 2018 - MT - CONVENIENCE</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>2233</v>
+        <v>2255</v>
       </c>
       <c r="H19" s="0" t="str">
         <f aca="false">CONCATENATE("'",F19,"'")</f>
@@ -67613,14 +67946,14 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">UPPER(G20)</f>
         <v>SPIRITS 2018 - MT - SUPERMARKET</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>2234</v>
+        <v>2256</v>
       </c>
       <c r="H20" s="0" t="str">
         <f aca="false">CONCATENATE("'",F20,"'")</f>
@@ -67633,14 +67966,14 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">UPPER(G21)</f>
         <v>TARGET EXECUTION 2018</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
       <c r="H21" s="0" t="str">
         <f aca="false">CONCATENATE("'",F21,"'")</f>
@@ -67653,14 +67986,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F22" s="0" t="str">
         <f aca="false">UPPER(G22)</f>
         <v>TOP GAPS</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
       <c r="H22" s="0" t="str">
         <f aca="false">CONCATENATE("'",F22,"'")</f>
@@ -67673,14 +68006,14 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">UPPER(G23)</f>
         <v>TOP SKU</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
       <c r="H23" s="0" t="str">
         <f aca="false">CONCATENATE("'",F23,"'")</f>
@@ -67693,427 +68026,427 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>2221</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>2222</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>2223</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>2224</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>2225</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>2226</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>2227</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>2228</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>2229</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>2230</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>2231</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>2232</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>2233</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>2233</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>2233</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>2234</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>2234</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>2234</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>2234</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
   </sheetData>
@@ -68139,150 +68472,153 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>2215</v>
+        <v>2237</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2238</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="B3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
       <c r="B4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
       <c r="B5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
       <c r="B6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>2221</v>
+        <v>2243</v>
       </c>
       <c r="B7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>2222</v>
+        <v>2244</v>
       </c>
       <c r="B8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>2223</v>
+        <v>2245</v>
       </c>
       <c r="B9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>2224</v>
+        <v>2246</v>
       </c>
       <c r="B10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>2225</v>
+        <v>2247</v>
       </c>
       <c r="B11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>2226</v>
+        <v>2248</v>
       </c>
       <c r="B12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>2227</v>
+        <v>2249</v>
       </c>
       <c r="B13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>2228</v>
+        <v>2250</v>
       </c>
       <c r="B14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>2229</v>
+        <v>2251</v>
       </c>
       <c r="B15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>2230</v>
+        <v>2252</v>
       </c>
       <c r="B16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>2231</v>
+        <v>2253</v>
       </c>
       <c r="B17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>2232</v>
+        <v>2254</v>
       </c>
       <c r="B18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>2233</v>
+        <v>2255</v>
       </c>
       <c r="B19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>2234</v>
+        <v>2256</v>
       </c>
       <c r="B20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
       <c r="B21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
       <c r="B23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>2239</v>
+        <v>2261</v>
       </c>
       <c r="B24" s="14"/>
     </row>
